--- a/Tests.xlsx
+++ b/Tests.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1700E47C-0266-41FB-BB88-9C7829A1BAC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tests" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="40">
   <si>
     <t>Test Name</t>
   </si>
@@ -51,9 +52,6 @@
     <t>Check to make sure every GameManager has a unique UID</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>Encodes and decodes a packet to ensure packet system is working correctly and data is preserved</t>
   </si>
   <si>
@@ -115,16 +113,49 @@
   </si>
   <si>
     <t>127.0.0.1s; 127.0.0.3; 231.123.423.423; xxxxxxx;</t>
+  </si>
+  <si>
+    <t>Name validation</t>
+  </si>
+  <si>
+    <t>Password validation</t>
+  </si>
+  <si>
+    <t>Ensure only permitted names are allowed</t>
+  </si>
+  <si>
+    <t>Ensure only permitted passwords are allowed</t>
+  </si>
+  <si>
+    <t>V0.2</t>
+  </si>
+  <si>
+    <t>PlayerName; Player Name; 1234; pls; rjfnsmekfntismes; rjfnsmekfntismess; [Empty];</t>
+  </si>
+  <si>
+    <t>Password; My Password; [Empty]; sfneksmrnaweirma; sfneksmrnaweirmaa; asd!; ad!; ad!\;</t>
+  </si>
+  <si>
+    <t>Boundries tested</t>
+  </si>
+  <si>
+    <t>Permitted; Illegal character; Too long; Too short; Empty;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -177,21 +208,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <fill>
         <patternFill>
@@ -202,21 +219,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
+          <bgColor theme="7" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -234,20 +237,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="9" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
@@ -256,62 +245,6 @@
       <fill>
         <patternFill>
           <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -590,32 +523,32 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" style="1" customWidth="1"/>
     <col min="2" max="2" width="37.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="4" width="27.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -626,36 +559,48 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="H1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -663,179 +608,280 @@
         <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="D9" s="1" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>26</v>
+      <c r="B11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="11" priority="6" operator="equal">
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="F1:F1048576">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+      <formula>"-"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>"No"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
-      <formula>"No"</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1:I1048576">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"-"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>"Pass"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
-      <formula>"-"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
-      <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Tests.xlsx
+++ b/Tests.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1700E47C-0266-41FB-BB88-9C7829A1BAC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30BF62AD-3368-4F3A-B1CC-39AAD74D484B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="41">
   <si>
     <t>Test Name</t>
   </si>
@@ -106,15 +106,6 @@
     <t>Pass</t>
   </si>
   <si>
-    <t>IP Address Validation</t>
-  </si>
-  <si>
-    <t>Create client and give it an invalid IP, check for correct error. Client Server connection test already handles valid Ips</t>
-  </si>
-  <si>
-    <t>127.0.0.1s; 127.0.0.3; 231.123.423.423; xxxxxxx;</t>
-  </si>
-  <si>
     <t>Name validation</t>
   </si>
   <si>
@@ -140,6 +131,18 @@
   </si>
   <si>
     <t>Permitted; Illegal character; Too long; Too short; Empty;</t>
+  </si>
+  <si>
+    <t>Gamemode name validation</t>
+  </si>
+  <si>
+    <t>Ensure all Gamemode names are valid file names for save files</t>
+  </si>
+  <si>
+    <t>V0.12</t>
+  </si>
+  <si>
+    <t>Fail</t>
   </si>
 </sst>
 </file>
@@ -531,11 +534,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -548,7 +551,7 @@
     <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -559,7 +562,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -571,10 +574,13 @@
         <v>26</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -599,8 +605,11 @@
       <c r="I2" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -625,8 +634,11 @@
       <c r="I3" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J3" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -651,8 +663,11 @@
       <c r="I4" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J4" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -677,8 +692,11 @@
       <c r="I5" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="J5" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -703,8 +721,11 @@
       <c r="I6" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="J6" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -729,8 +750,11 @@
       <c r="I7" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="J7" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
@@ -755,8 +779,11 @@
       <c r="I8" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J8" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
@@ -781,46 +808,52 @@
       <c r="I9" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J9" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="C11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="E11" s="1" t="s">
         <v>7</v>
       </c>
@@ -833,19 +866,19 @@
       <c r="I11" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="J11" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>7</v>
@@ -857,6 +890,9 @@
         <v>25</v>
       </c>
       <c r="I12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J12" s="1" t="s">
         <v>27</v>
       </c>
     </row>
@@ -873,7 +909,7 @@
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:I1048576">
+  <conditionalFormatting sqref="H1:J1048576">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>

--- a/Tests.xlsx
+++ b/Tests.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20391"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30BF62AD-3368-4F3A-B1CC-39AAD74D484B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDFE6C39-937F-47A6-9D4A-CF3013310729}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tests" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="44">
   <si>
     <t>Test Name</t>
   </si>
@@ -143,6 +143,16 @@
   </si>
   <si>
     <t>Fail</t>
+  </si>
+  <si>
+    <t>V1.02</t>
+  </si>
+  <si>
+    <t>AppearanceID</t>
+  </si>
+  <si>
+    <t>Ensure only one sprite is set for each appearance ID
+Test can only occur at runtime due to Unity limitations, test will be disabled in build for optimisation</t>
   </si>
 </sst>
 </file>
@@ -534,11 +544,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
+      <selection pane="bottomLeft" activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -551,7 +561,7 @@
     <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -579,8 +589,11 @@
       <c r="J1" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="K1" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -608,8 +621,11 @@
       <c r="J2" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="K2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -637,8 +653,11 @@
       <c r="J3" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="K3" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -666,8 +685,11 @@
       <c r="J4" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="K4" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -695,8 +717,11 @@
       <c r="J5" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="K5" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -724,8 +749,11 @@
       <c r="J6" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="K6" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -753,8 +781,11 @@
       <c r="J7" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="K7" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
@@ -782,8 +813,11 @@
       <c r="J8" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K8" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
@@ -811,8 +845,11 @@
       <c r="J9" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K9" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>28</v>
       </c>
@@ -840,8 +877,11 @@
       <c r="J10" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="K10" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>29</v>
       </c>
@@ -869,8 +909,11 @@
       <c r="J11" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="K11" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>37</v>
       </c>
@@ -894,6 +937,41 @@
       </c>
       <c r="J12" s="1" t="s">
         <v>27</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -909,7 +987,7 @@
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:J1048576">
+  <conditionalFormatting sqref="H1:K1048576">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>

--- a/Tests.xlsx
+++ b/Tests.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20391"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDFE6C39-937F-47A6-9D4A-CF3013310729}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F790CD15-53A6-4766-9084-5796E699F2D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tests" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="45">
   <si>
     <t>Test Name</t>
   </si>
@@ -153,6 +153,9 @@
   <si>
     <t>Ensure only one sprite is set for each appearance ID
 Test can only occur at runtime due to Unity limitations, test will be disabled in build for optimisation</t>
+  </si>
+  <si>
+    <t>V1.05</t>
   </si>
 </sst>
 </file>
@@ -544,11 +547,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L11" sqref="L11"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -561,7 +564,7 @@
     <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -592,8 +595,11 @@
       <c r="K1" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="L1" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -624,8 +630,11 @@
       <c r="K2" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="L2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -656,8 +665,11 @@
       <c r="K3" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="L3" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -688,8 +700,11 @@
       <c r="K4" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="L4" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -720,8 +735,11 @@
       <c r="K5" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="L5" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -752,8 +770,11 @@
       <c r="K6" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="L6" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -784,8 +805,11 @@
       <c r="K7" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="L7" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
@@ -816,8 +840,11 @@
       <c r="K8" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L8" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
@@ -848,8 +875,11 @@
       <c r="K9" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L9" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>28</v>
       </c>
@@ -880,8 +910,11 @@
       <c r="K10" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="L10" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>29</v>
       </c>
@@ -912,8 +945,11 @@
       <c r="K11" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="L11" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>37</v>
       </c>
@@ -941,8 +977,11 @@
       <c r="K12" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="L12" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>42</v>
       </c>
@@ -959,7 +998,7 @@
         <v>7</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>25</v>
@@ -972,6 +1011,9 @@
       </c>
       <c r="K13" s="1" t="s">
         <v>25</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -987,7 +1029,7 @@
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:K1048576">
+  <conditionalFormatting sqref="H1:L1048576">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>

--- a/Tests.xlsx
+++ b/Tests.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F790CD15-53A6-4766-9084-5796E699F2D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{461C79EF-3525-4273-817A-F6315E398A70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="42">
   <si>
     <t>Test Name</t>
   </si>
@@ -68,18 +68,6 @@
   </si>
   <si>
     <t>Check to make sure every Piece has a unique UID</t>
-  </si>
-  <si>
-    <t>Server Packet Handling Test</t>
-  </si>
-  <si>
-    <t>Gives a packet to the InternalServerPacketHandler to ensure it is processed correctly</t>
-  </si>
-  <si>
-    <t>Client Packet Handling Test</t>
-  </si>
-  <si>
-    <t>Gives a packet to the InternalClientPacketHandler to ensure it is processed correctly</t>
   </si>
   <si>
     <t>Client Server connection test</t>
@@ -156,6 +144,9 @@
   </si>
   <si>
     <t>V1.05</t>
+  </si>
+  <si>
+    <t>V1.12</t>
   </si>
 </sst>
 </file>
@@ -547,11 +538,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -564,7 +555,7 @@
     <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -575,7 +566,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -584,22 +575,25 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>44</v>
-      </c>
     </row>
-    <row r="2" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -610,7 +604,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>7</v>
@@ -619,22 +613,25 @@
         <v>7</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -642,10 +639,10 @@
         <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>7</v>
@@ -654,22 +651,25 @@
         <v>7</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -677,10 +677,10 @@
         <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>7</v>
@@ -689,22 +689,25 @@
         <v>7</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -712,10 +715,10 @@
         <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>7</v>
@@ -724,22 +727,25 @@
         <v>7</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -750,31 +756,34 @@
         <v>6</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -782,150 +791,159 @@
         <v>19</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>25</v>
+      <c r="B9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>25</v>
+    <row r="10" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>7</v>
@@ -934,86 +952,22 @@
         <v>7</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1029,7 +983,7 @@
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:L1048576">
+  <conditionalFormatting sqref="H1:M1048576">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>

--- a/Tests.xlsx
+++ b/Tests.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{461C79EF-3525-4273-817A-F6315E398A70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{143CD0FB-E215-4369-A586-F06BCB3BEADD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tests" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="43">
   <si>
     <t>Test Name</t>
   </si>
@@ -147,6 +147,9 @@
   </si>
   <si>
     <t>V1.12</t>
+  </si>
+  <si>
+    <t>V1.21</t>
   </si>
 </sst>
 </file>
@@ -538,11 +541,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomLeft" activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -555,7 +558,7 @@
     <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -592,8 +595,11 @@
       <c r="M1" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="N1" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -630,8 +636,11 @@
       <c r="M2" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="N2" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="3" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -668,8 +677,11 @@
       <c r="M3" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="N3" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="4" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -706,8 +718,11 @@
       <c r="M4" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="N4" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="5" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -744,8 +759,11 @@
       <c r="M5" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="N5" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="6" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -782,8 +800,11 @@
       <c r="M6" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="N6" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="7" spans="1:13" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -820,8 +841,11 @@
       <c r="M7" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="N7" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="8" spans="1:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
@@ -858,8 +882,11 @@
       <c r="M8" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="N8" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="9" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
@@ -896,8 +923,11 @@
       <c r="M9" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="N9" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="10" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>33</v>
       </c>
@@ -931,8 +961,11 @@
       <c r="M10" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="N10" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="11" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>38</v>
       </c>
@@ -967,6 +1000,9 @@
         <v>23</v>
       </c>
       <c r="M11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N11" s="1" t="s">
         <v>23</v>
       </c>
     </row>
@@ -983,7 +1019,7 @@
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:M1048576">
+  <conditionalFormatting sqref="H1:N1048576">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>

--- a/Tests.xlsx
+++ b/Tests.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{143CD0FB-E215-4369-A586-F06BCB3BEADD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CA80E22-3C5F-443B-B6BE-3021AAA16AF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="42">
   <si>
     <t>Test Name</t>
   </si>
@@ -68,12 +68,6 @@
   </si>
   <si>
     <t>Check to make sure every Piece has a unique UID</t>
-  </si>
-  <si>
-    <t>Client Server connection test</t>
-  </si>
-  <si>
-    <t>Starts a server and connects a client to it, sends a packet from client to server, waits for response and then checks response data</t>
   </si>
   <si>
     <t>End-to-end Networking Test</t>
@@ -150,6 +144,9 @@
   </si>
   <si>
     <t>V1.21</t>
+  </si>
+  <si>
+    <t>V1.26</t>
   </si>
 </sst>
 </file>
@@ -276,6 +273,280 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>55634</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="7" name="Group 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFF8960C-D3FE-23A4-C4B6-7A294058B0A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1752600" y="6391275"/>
+          <a:ext cx="4267200" cy="1370084"/>
+          <a:chOff x="1752600" y="7153275"/>
+          <a:chExt cx="4267200" cy="1370084"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="2" name="Picture 1">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B8D7F92-FDF0-D475-E4A4-892137371396}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1752600" y="7153275"/>
+            <a:ext cx="2286319" cy="1105054"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="TextBox 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB76A78A-09D8-828A-C3DA-3A44E10955C1}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1752600" y="8258175"/>
+            <a:ext cx="2286000" cy="257175"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1100"/>
+              <a:t>Successful automated tests</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="4" name="Picture 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42D8B745-0FBE-005B-FDCE-07400D3DD9A0}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4038600" y="7153275"/>
+            <a:ext cx="1981200" cy="1370084"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1609725</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>210119</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="8" name="Group 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{054574C5-5CEA-7F5A-9201-097B69E8EE28}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="7324725" y="6267450"/>
+          <a:ext cx="4077269" cy="1733550"/>
+          <a:chOff x="7200900" y="7153275"/>
+          <a:chExt cx="4077269" cy="1733550"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="5" name="Picture 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51CD3651-F205-A677-E41A-0BEB76103C70}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7200900" y="7153275"/>
+            <a:ext cx="4077269" cy="1486107"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="TextBox 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A548ABFE-960D-0F9B-AFE6-0F971227615A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7200900" y="8629650"/>
+            <a:ext cx="4057650" cy="257175"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1100"/>
+              <a:t>Failed test</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -541,11 +812,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N2" sqref="N2"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -558,7 +829,7 @@
     <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -569,7 +840,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -578,28 +849,31 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="L1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>42</v>
-      </c>
     </row>
-    <row r="2" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -610,7 +884,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>7</v>
@@ -619,28 +893,31 @@
         <v>7</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -648,10 +925,10 @@
         <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>7</v>
@@ -660,28 +937,31 @@
         <v>7</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -689,10 +969,10 @@
         <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>7</v>
@@ -701,28 +981,31 @@
         <v>7</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -730,10 +1013,10 @@
         <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>7</v>
@@ -742,28 +1025,31 @@
         <v>7</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -771,19 +1057,19 @@
         <v>17</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>21</v>
@@ -803,139 +1089,151 @@
       <c r="N6" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="O6" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="7" spans="1:14" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>23</v>
+      <c r="B8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="1" t="s">
+    <row r="9" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>23</v>
+      <c r="C9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>7</v>
@@ -944,66 +1242,28 @@
         <v>7</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="75" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1019,7 +1279,7 @@
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:N1048576">
+  <conditionalFormatting sqref="H1:O1048576">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
@@ -1032,5 +1292,6 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Tests.xlsx
+++ b/Tests.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CA80E22-3C5F-443B-B6BE-3021AAA16AF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28CE624C-BB55-424F-9D47-9380B990D424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="43">
   <si>
     <t>Test Name</t>
   </si>
@@ -147,6 +147,9 @@
   </si>
   <si>
     <t>V1.26</t>
+  </si>
+  <si>
+    <t>V1.29</t>
   </si>
 </sst>
 </file>
@@ -812,11 +815,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2:E8"/>
+      <selection pane="bottomLeft" activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -829,7 +832,7 @@
     <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -872,8 +875,11 @@
       <c r="O1" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="P1" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="2" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -916,8 +922,11 @@
       <c r="O2" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="P2" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="3" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -960,8 +969,11 @@
       <c r="O3" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="P3" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="4" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -1004,8 +1016,11 @@
       <c r="O4" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="P4" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="5" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -1048,8 +1063,11 @@
       <c r="O5" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="P5" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="6" spans="1:15" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -1092,8 +1110,11 @@
       <c r="O6" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="P6" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="7" spans="1:15" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
@@ -1136,8 +1157,11 @@
       <c r="O7" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="P7" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="8" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
@@ -1180,8 +1204,11 @@
       <c r="O8" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="P8" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="9" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>31</v>
       </c>
@@ -1221,8 +1248,11 @@
       <c r="O9" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="P9" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="10" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>36</v>
       </c>
@@ -1263,6 +1293,9 @@
         <v>21</v>
       </c>
       <c r="O10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P10" s="1" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1279,7 +1312,7 @@
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:O1048576">
+  <conditionalFormatting sqref="H1:P1048576">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>

--- a/Tests.xlsx
+++ b/Tests.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28CE624C-BB55-424F-9D47-9380B990D424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED11202F-BC34-4514-BB92-0DC930D7CA4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="-26835" yWindow="2310" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tests" sheetId="1" r:id="rId1"/>
@@ -25,9 +25,6 @@
     <t>Test Name</t>
   </si>
   <si>
-    <t>Desription</t>
-  </si>
-  <si>
     <t>Data</t>
   </si>
   <si>
@@ -150,6 +147,9 @@
   </si>
   <si>
     <t>V1.29</t>
+  </si>
+  <si>
+    <t>Desription and Justification</t>
   </si>
 </sst>
 </file>
@@ -818,8 +818,8 @@
   <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P2" sqref="P2"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -837,466 +837,466 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="C9" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="C10" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Tests.xlsx
+++ b/Tests.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED11202F-BC34-4514-BB92-0DC930D7CA4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3C7BD1D-DD21-4B17-A754-911C9A260430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-26835" yWindow="2310" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tests" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="44">
   <si>
     <t>Test Name</t>
   </si>
@@ -150,6 +150,9 @@
   </si>
   <si>
     <t>Desription and Justification</t>
+  </si>
+  <si>
+    <t>V1.35</t>
   </si>
 </sst>
 </file>
@@ -815,11 +818,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -832,7 +835,7 @@
     <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -878,8 +881,11 @@
       <c r="P1" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="Q1" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="2" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -925,8 +931,11 @@
       <c r="P2" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="Q2" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="3" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -972,8 +981,11 @@
       <c r="P3" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="Q3" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="4" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -1019,8 +1031,11 @@
       <c r="P4" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="Q4" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="5" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -1066,8 +1081,11 @@
       <c r="P5" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="Q5" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="6" spans="1:16" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -1113,8 +1131,11 @@
       <c r="P6" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="Q6" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="7" spans="1:16" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
@@ -1160,8 +1181,11 @@
       <c r="P7" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="Q7" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="8" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
@@ -1207,8 +1231,11 @@
       <c r="P8" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="Q8" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="9" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>30</v>
       </c>
@@ -1251,8 +1278,11 @@
       <c r="P9" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="Q9" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="10" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>35</v>
       </c>
@@ -1296,6 +1326,9 @@
         <v>20</v>
       </c>
       <c r="P10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q10" s="1" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1312,7 +1345,7 @@
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:P1048576">
+  <conditionalFormatting sqref="H1:Q1048576">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>

--- a/Tests.xlsx
+++ b/Tests.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3C7BD1D-DD21-4B17-A754-911C9A260430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AD440A6-A0EB-48E2-B8F2-28B5910F244B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="45">
   <si>
     <t>Test Name</t>
   </si>
@@ -153,6 +153,9 @@
   </si>
   <si>
     <t>V1.35</t>
+  </si>
+  <si>
+    <t>V1.55</t>
   </si>
 </sst>
 </file>
@@ -818,11 +821,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q10"/>
+  <dimension ref="A1:R10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -835,7 +838,7 @@
     <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -884,8 +887,11 @@
       <c r="Q1" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="R1" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="2" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -934,8 +940,11 @@
       <c r="Q2" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="R2" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="3" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -984,8 +993,11 @@
       <c r="Q3" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="R3" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="4" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -1034,8 +1046,11 @@
       <c r="Q4" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="R4" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="5" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -1084,8 +1099,11 @@
       <c r="Q5" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="R5" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="6" spans="1:17" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -1134,8 +1152,11 @@
       <c r="Q6" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="R6" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="7" spans="1:17" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
@@ -1184,8 +1205,11 @@
       <c r="Q7" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="R7" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="8" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
@@ -1234,8 +1258,11 @@
       <c r="Q8" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="R8" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="9" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>30</v>
       </c>
@@ -1281,8 +1308,11 @@
       <c r="Q9" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="R9" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="10" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>35</v>
       </c>
@@ -1329,6 +1359,9 @@
         <v>20</v>
       </c>
       <c r="Q10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R10" s="1" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1345,7 +1378,7 @@
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:Q1048576">
+  <conditionalFormatting sqref="H1:Q1048576 R2:R10">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>

--- a/Tests.xlsx
+++ b/Tests.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AD440A6-A0EB-48E2-B8F2-28B5910F244B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B9ACAEC-D70B-43E8-895C-B81C9E860794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tests" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="47">
   <si>
     <t>Test Name</t>
   </si>
@@ -156,6 +156,12 @@
   </si>
   <si>
     <t>V1.55</t>
+  </si>
+  <si>
+    <t>V1.57</t>
+  </si>
+  <si>
+    <t>V1.58</t>
   </si>
 </sst>
 </file>
@@ -821,11 +827,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R10"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T7" sqref="T7"/>
+      <selection pane="bottomLeft" activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -838,7 +844,7 @@
     <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -890,8 +896,14 @@
       <c r="R1" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="S1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="2" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -943,8 +955,14 @@
       <c r="R2" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="S2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="3" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -996,8 +1014,14 @@
       <c r="R3" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="S3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="4" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -1049,8 +1073,14 @@
       <c r="R4" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="S4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="5" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -1102,8 +1132,14 @@
       <c r="R5" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="S5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="6" spans="1:18" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -1155,8 +1191,14 @@
       <c r="R6" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="S6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="7" spans="1:18" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
@@ -1208,8 +1250,14 @@
       <c r="R7" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="S7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="8" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
@@ -1261,8 +1309,14 @@
       <c r="R8" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="S8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="9" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>30</v>
       </c>
@@ -1311,8 +1365,14 @@
       <c r="R9" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="S9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="10" spans="1:18" ht="75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>35</v>
       </c>
@@ -1362,6 +1422,12 @@
         <v>20</v>
       </c>
       <c r="R10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="T10" s="1" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1378,7 +1444,7 @@
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:Q1048576 R2:R10">
+  <conditionalFormatting sqref="H1:Q1048576 R2:T10">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>

--- a/Tests.xlsx
+++ b/Tests.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B9ACAEC-D70B-43E8-895C-B81C9E860794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16E3AAC3-601A-4B81-AC28-7F7BAF48FEEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tests" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="48">
   <si>
     <t>Test Name</t>
   </si>
@@ -162,6 +162,9 @@
   </si>
   <si>
     <t>V1.58</t>
+  </si>
+  <si>
+    <t>V1.6 (Final)</t>
   </si>
 </sst>
 </file>
@@ -318,8 +321,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1752600" y="6391275"/>
-          <a:ext cx="4267200" cy="1370084"/>
+          <a:off x="1753160" y="6383991"/>
+          <a:ext cx="4277846" cy="1370084"/>
           <a:chOff x="1752600" y="7153275"/>
           <a:chExt cx="4267200" cy="1370084"/>
         </a:xfrm>
@@ -467,8 +470,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7324725" y="6267450"/>
-          <a:ext cx="4077269" cy="1733550"/>
+          <a:off x="7335931" y="6260166"/>
+          <a:ext cx="4080070" cy="1733550"/>
           <a:chOff x="7200900" y="7153275"/>
           <a:chExt cx="4077269" cy="1733550"/>
         </a:xfrm>
@@ -827,11 +830,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:U10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T2" sqref="T2"/>
+      <selection pane="bottomLeft" activeCell="M26" sqref="L26:M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -841,10 +844,12 @@
     <col min="3" max="4" width="27.140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="18.28515625" style="1" customWidth="1"/>
     <col min="6" max="6" width="18.42578125" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="20" width="9.140625" style="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -902,8 +907,11 @@
       <c r="T1" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="U1" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="2" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -961,8 +969,11 @@
       <c r="T2" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="U2" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="3" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1020,8 +1031,11 @@
       <c r="T3" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="U3" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="4" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -1079,8 +1093,11 @@
       <c r="T4" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="U4" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="5" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -1138,8 +1155,11 @@
       <c r="T5" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="U5" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="6" spans="1:20" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -1197,8 +1217,11 @@
       <c r="T6" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="U6" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="7" spans="1:20" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
@@ -1256,8 +1279,11 @@
       <c r="T7" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="U7" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="8" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
@@ -1315,8 +1341,11 @@
       <c r="T8" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="U8" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="9" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>30</v>
       </c>
@@ -1371,8 +1400,11 @@
       <c r="T9" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="U9" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="10" spans="1:20" ht="75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>35</v>
       </c>
@@ -1428,6 +1460,9 @@
         <v>20</v>
       </c>
       <c r="T10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="U10" s="1" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1444,7 +1479,7 @@
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:Q1048576 R2:T10">
+  <conditionalFormatting sqref="H1:Q1048576 R2:U10">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
